--- a/templatee.xlsx
+++ b/templatee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8460"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>2024.01应付款汇款审批单</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>财务院长：</t>
+  </si>
+  <si>
+    <t>院长：</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +945,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,7 +1297,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1331,7 +1340,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="42"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="18" customHeight="1" spans="1:10">
@@ -1343,8 +1352,8 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="46" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1374,7 +1383,7 @@
       <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="47" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1392,7 +1401,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="24"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="46"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A6" s="30"/>
@@ -1404,7 +1413,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="34"/>
       <c r="I6" s="31"/>
-      <c r="J6" s="47"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A7" s="30"/>
@@ -1416,7 +1425,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="34"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="47"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A8" s="30"/>
@@ -1428,7 +1437,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="34"/>
       <c r="I8" s="31"/>
-      <c r="J8" s="47"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="27" customHeight="1" spans="1:10">
       <c r="A9" s="30"/>
@@ -1440,7 +1449,7 @@
       <c r="G9" s="32"/>
       <c r="H9" s="34"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="47"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A10" s="30"/>
@@ -1452,7 +1461,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="34"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="47"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A11" s="30"/>
@@ -1464,7 +1473,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="34"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" customHeight="1" spans="1:10">
       <c r="A12" s="30"/>
@@ -1476,7 +1485,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="34"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="47"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A13" s="30"/>
@@ -1488,7 +1497,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="34"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A14" s="30"/>
@@ -1500,7 +1509,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="34"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A15" s="36" t="s">
@@ -1525,8 +1534,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:11">
       <c r="A16" s="40" t="s">
@@ -1535,31 +1544,33 @@
       <c r="B16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="41" t="s">
         <v>17</v>
       </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="41"/>
-      <c r="H16" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="41"/>
+      <c r="H16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="42"/>
       <c r="J16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.6" spans="1:10">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
     </row>
@@ -1568,8 +1579,8 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
